--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,58 +473,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>5.77</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>5.77</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>작업 가능</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4511.72</v>
-      </c>
-      <c r="F3" t="n">
-        <v>902.34</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>작업 불가능</t>
         </is>
       </c>
     </row>
